--- a/TaggedPrices.xlsx
+++ b/TaggedPrices.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A01', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A01']</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A02', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A02']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A10s', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A10s']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A02', 'NNP'), ('64GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A02', '64GB']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A03', 'NNP'), ('Core', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A03', 'Core']</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A02s', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A02s']</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A11', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A11']</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A02s', 'NNP'), ('4GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A02s', '4GB']</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A10', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A10']</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A03s', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A03s']</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A03s', 'NNP'), ('4GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A03s', '4GB']</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A12', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A12']</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('M11', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'M11']</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A12', 'NNP'), ('128GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A12', '128GB']</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A03', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A03']</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A20', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A20']</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A21s', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A21s']</t>
         </is>
       </c>
     </row>
@@ -752,31 +752,31 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A20s', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A20s']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A04e</t>
+          <t>Samsung Galaxy A04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>33999</t>
+          <t>31499</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A04e', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A04']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A21s 128GB</t>
+          <t>Samsung Galaxy A04e</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -786,177 +786,177 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A21s', 'NNP'), ('128GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A04e']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A31</t>
+          <t>Samsung Galaxy A21s 128GB</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>36999</t>
+          <t>33999</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A31', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A21s', '128GB']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A30s</t>
+          <t>Samsung Galaxy A04 4GB</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>36999</t>
+          <t>35499</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A30s', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A04', '4GB']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A04</t>
+          <t>Samsung Galaxy A31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>37499</t>
+          <t>36999</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A04', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A31']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A30s 128GB</t>
+          <t>Samsung Galaxy A30s</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>38999</t>
+          <t>36999</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A30s', 'NNP'), ('128GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A30s']</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A03 4GB</t>
+          <t>Samsung Galaxy A30s 128GB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>41599</t>
+          <t>38999</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A03', 'NNP'), ('4GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A30s', '128GB']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A04 4GB</t>
+          <t>Samsung Galaxy A04s</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>42999</t>
+          <t>39999</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A04', 'NNP'), ('4GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A04s']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A04s</t>
+          <t>Samsung Galaxy A03 4GB</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>44999</t>
+          <t>41599</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A04s', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A03', '4GB']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M31</t>
+          <t>Samsung Galaxy A04s 128GB</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>44999</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('M31', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A04s', '128GB']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Samsung Galaxy M31s</t>
+          <t>Samsung Galaxy M31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>47999</t>
+          <t>44999</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('M31s', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'M31']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A04s 128GB</t>
+          <t>Samsung Galaxy M31s</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>48999</t>
+          <t>47999</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A04s', 'NNP'), ('128GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'M31s']</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A51', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A51']</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A51', 'NNP'), ('8GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A51', '8GB']</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A14', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A14']</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A71', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A71']</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A13', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A13']</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A22', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A22']</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A14', 'NNP'), ('6GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A14', '6GB']</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('M51', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'M51']</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A33', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A33']</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A13', 'NNP'), ('128GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A13', '128GB']</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A52', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A52']</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A22', 'NNP'), ('6GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A22', '6GB']</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A52s', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A52s']</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A32', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A32']</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A23', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A23']</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A24', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A24']</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('M52', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'M52']</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A72', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A72']</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A52s', 'NNP'), ('256GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A52s', '256GB']</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A33', 'NNP'), ('8GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A33', '8GB']</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A34', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A34']</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A34', 'NNP'), ('256GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'A34', '256GB']</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S20', 'NNP'), ('FE', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'S20', 'FE']</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A53', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A53']</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A54', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A54']</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S21', 'NNP'), ('FE', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'S21', 'FE']</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('A73', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'A73']</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S20', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'S20']</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S21', 'NNP'), ('FE', 'NNP'), ('256GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'S21', 'FE', '256GB']</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S21', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'S21']</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('Note', 'NNP'), ('20', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'Note', '20']</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S21', 'NNP'), ('Plus', 'CC')]</t>
+          <t>['Samsung', 'Galaxy', 'S21', 'Plus']</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('Z', 'NNP'), ('Flip', 'NNP'), ('3', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'Z', 'Flip', '3']</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('Note', 'NNP'), ('20', 'CD'), ('Ultra', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'Note', '20', 'Ultra']</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S22', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'S22']</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S21', 'NNP'), ('Ultra', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'S21', 'Ultra']</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('Z', 'NNP'), ('Fold', 'NNP'), ('3', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'Z', 'Fold', '3']</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('Z', 'NNP'), ('Flip', 'NNP'), ('4', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'Z', 'Flip', '4']</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('Z', 'NNP'), ('Flip', 'NNP'), ('5', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'Z', 'Flip', '5']</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S23', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'S23']</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S22', 'NNP'), ('Ultra', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'S22', 'Ultra']</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('Z', 'NNP'), ('Fold', 'NNP'), ('4', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'Z', 'Fold', '4']</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('S23', 'NNP'), ('Ultra', 'NNP')]</t>
+          <t>['Samsung', 'Galaxy', 'S23', 'Ultra']</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('Z', 'NNP'), ('Fold', 'NNP'), ('4', 'CD'), ('12GB', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'Z', 'Fold', '4', '12GB']</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[('Samsung', 'NNP'), ('Galaxy', 'NNP'), ('Z', 'NNP'), ('Fold', 'NNP'), ('5', 'CD')]</t>
+          <t>['Samsung', 'Galaxy', 'Z', 'Fold', '5']</t>
         </is>
       </c>
     </row>
